--- a/data/134/DEUSTATIS/old/Foreign trade - SITC2 codes.xlsx
+++ b/data/134/DEUSTATIS/old/Foreign trade - SITC2 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="39">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 classifications of trading goods</t>
@@ -130,7 +130,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:15:32</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:11:35</t>
   </si>
 </sst>
 </file>
@@ -4559,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="D307" t="n" s="10">
-        <v>1370398.0</v>
+        <v>1370929.0</v>
       </c>
     </row>
     <row r="308">
@@ -4570,7 +4570,7 @@
         <v>10</v>
       </c>
       <c r="D308" t="n" s="10">
-        <v>5216803.0</v>
+        <v>5185403.0</v>
       </c>
     </row>
     <row r="309">
@@ -4584,7 +4584,7 @@
         <v>10</v>
       </c>
       <c r="D309" t="n" s="10">
-        <v>1345623.0</v>
+        <v>1346621.0</v>
       </c>
     </row>
     <row r="310">
@@ -4595,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="D310" t="n" s="10">
-        <v>4649278.0</v>
+        <v>4649483.0</v>
       </c>
     </row>
     <row r="311">
@@ -4609,7 +4609,7 @@
         <v>10</v>
       </c>
       <c r="D311" t="n" s="10">
-        <v>1106930.0</v>
+        <v>1108221.0</v>
       </c>
     </row>
     <row r="312">
@@ -4620,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="D312" t="n" s="10">
-        <v>3797008.0</v>
+        <v>3800531.0</v>
       </c>
     </row>
     <row r="313">
@@ -4634,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="D313" t="n" s="10">
-        <v>614228.0</v>
+        <v>614783.0</v>
       </c>
     </row>
     <row r="314">
@@ -4645,7 +4645,7 @@
         <v>10</v>
       </c>
       <c r="D314" t="n" s="10">
-        <v>2278956.0</v>
+        <v>2279811.0</v>
       </c>
     </row>
     <row r="315">
@@ -4659,7 +4659,7 @@
         <v>10</v>
       </c>
       <c r="D315" t="n" s="10">
-        <v>671219.0</v>
+        <v>671920.0</v>
       </c>
     </row>
     <row r="316">
@@ -4670,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="D316" t="n" s="10">
-        <v>2217522.0</v>
+        <v>2220953.0</v>
       </c>
     </row>
     <row r="317">
@@ -4684,7 +4684,7 @@
         <v>10</v>
       </c>
       <c r="D317" t="n" s="10">
-        <v>803858.0</v>
+        <v>805431.0</v>
       </c>
     </row>
     <row r="318">
@@ -4695,7 +4695,7 @@
         <v>10</v>
       </c>
       <c r="D318" t="n" s="10">
-        <v>2687242.0</v>
+        <v>2736343.0</v>
       </c>
     </row>
     <row r="319">
@@ -4709,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="D319" t="n" s="10">
-        <v>906117.0</v>
+        <v>906796.0</v>
       </c>
     </row>
     <row r="320">
@@ -4720,7 +4720,7 @@
         <v>10</v>
       </c>
       <c r="D320" t="n" s="10">
-        <v>2934952.0</v>
+        <v>2888789.0</v>
       </c>
     </row>
     <row r="321">
@@ -4734,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="D321" t="n" s="10">
-        <v>966293.0</v>
+        <v>968657.0</v>
       </c>
     </row>
     <row r="322">
@@ -4745,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="D322" t="n" s="10">
-        <v>2973782.0</v>
+        <v>2974744.0</v>
       </c>
     </row>
     <row r="323">
@@ -4759,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="D323" t="n" s="10">
-        <v>915352.0</v>
+        <v>915776.0</v>
       </c>
     </row>
     <row r="324">
@@ -4770,7 +4770,7 @@
         <v>10</v>
       </c>
       <c r="D324" t="n" s="10">
-        <v>2803985.0</v>
+        <v>2804345.0</v>
       </c>
     </row>
     <row r="325">
@@ -4784,7 +4784,7 @@
         <v>10</v>
       </c>
       <c r="D325" t="n" s="10">
-        <v>967798.0</v>
+        <v>968161.0</v>
       </c>
     </row>
     <row r="326">
@@ -4795,7 +4795,7 @@
         <v>10</v>
       </c>
       <c r="D326" t="n" s="10">
-        <v>2888173.0</v>
+        <v>2888419.0</v>
       </c>
     </row>
     <row r="327">
@@ -4809,7 +4809,7 @@
         <v>10</v>
       </c>
       <c r="D327" t="n" s="10">
-        <v>859063.0</v>
+        <v>859094.0</v>
       </c>
     </row>
     <row r="328">
@@ -4820,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="D328" t="n" s="10">
-        <v>2862840.0</v>
+        <v>2864181.0</v>
       </c>
     </row>
     <row r="329">
@@ -4834,7 +4834,7 @@
         <v>10</v>
       </c>
       <c r="D329" t="n" s="10">
-        <v>974975.0</v>
+        <v>964972.0</v>
       </c>
     </row>
     <row r="330">
@@ -4845,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="D330" t="n" s="10">
-        <v>3121002.0</v>
+        <v>3110457.0</v>
       </c>
     </row>
     <row r="331" ht="50.6" customHeight="true">
@@ -4864,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="D332" t="n" s="10">
-        <v>1017005.0</v>
+        <v>1017263.0</v>
       </c>
     </row>
     <row r="333">
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="D333" t="n" s="10">
-        <v>2872536.0</v>
+        <v>2872649.0</v>
       </c>
     </row>
     <row r="334">
@@ -4889,7 +4889,7 @@
         <v>10</v>
       </c>
       <c r="D334" t="n" s="10">
-        <v>1114426.0</v>
+        <v>1117435.0</v>
       </c>
     </row>
     <row r="335">
@@ -4900,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="D335" t="n" s="10">
-        <v>3041477.0</v>
+        <v>3043554.0</v>
       </c>
     </row>
     <row r="336">
@@ -4914,7 +4914,7 @@
         <v>10</v>
       </c>
       <c r="D336" t="n" s="10">
-        <v>1420092.0</v>
+        <v>1421098.0</v>
       </c>
     </row>
     <row r="337">
@@ -4925,7 +4925,7 @@
         <v>10</v>
       </c>
       <c r="D337" t="n" s="10">
-        <v>3871204.0</v>
+        <v>3873144.0</v>
       </c>
     </row>
     <row r="338">
@@ -4939,7 +4939,7 @@
         <v>10</v>
       </c>
       <c r="D338" t="n" s="10">
-        <v>1224251.0</v>
+        <v>1226410.0</v>
       </c>
     </row>
     <row r="339">
@@ -4950,7 +4950,7 @@
         <v>10</v>
       </c>
       <c r="D339" t="n" s="10">
-        <v>3917799.0</v>
+        <v>3919476.0</v>
       </c>
     </row>
     <row r="340">
@@ -4964,7 +4964,7 @@
         <v>10</v>
       </c>
       <c r="D340" t="n" s="10">
-        <v>1440331.0</v>
+        <v>1435677.0</v>
       </c>
     </row>
     <row r="341">
@@ -4975,7 +4975,7 @@
         <v>10</v>
       </c>
       <c r="D341" t="n" s="10">
-        <v>4468441.0</v>
+        <v>4469562.0</v>
       </c>
     </row>
     <row r="342">
@@ -4989,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="D342" t="n" s="10">
-        <v>1528998.0</v>
+        <v>1529098.0</v>
       </c>
     </row>
     <row r="343">
@@ -5000,7 +5000,7 @@
         <v>10</v>
       </c>
       <c r="D343" t="n" s="10">
-        <v>4311036.0</v>
+        <v>4338392.0</v>
       </c>
     </row>
     <row r="344">
@@ -5014,7 +5014,7 @@
         <v>10</v>
       </c>
       <c r="D344" t="n" s="10">
-        <v>1584871.0</v>
+        <v>1600928.0</v>
       </c>
     </row>
     <row r="345">
@@ -5025,7 +5025,7 @@
         <v>10</v>
       </c>
       <c r="D345" t="n" s="10">
-        <v>4758971.0</v>
+        <v>4789761.0</v>
       </c>
     </row>
     <row r="346">
@@ -5038,8 +5038,8 @@
       <c r="C346" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D346" t="s" s="10">
-        <v>36</v>
+      <c r="D346" t="n" s="10">
+        <v>1673641.0</v>
       </c>
     </row>
     <row r="347">
@@ -5049,8 +5049,8 @@
       <c r="C347" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D347" t="s" s="10">
-        <v>36</v>
+      <c r="D347" t="n" s="10">
+        <v>4886938.0</v>
       </c>
     </row>
     <row r="348">
@@ -5063,8 +5063,8 @@
       <c r="C348" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D348" t="s" s="10">
-        <v>36</v>
+      <c r="D348" t="n" s="10">
+        <v>1656319.0</v>
       </c>
     </row>
     <row r="349">
@@ -5074,8 +5074,8 @@
       <c r="C349" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D349" t="s" s="10">
-        <v>36</v>
+      <c r="D349" t="n" s="10">
+        <v>5158922.0</v>
       </c>
     </row>
     <row r="350">
@@ -5088,8 +5088,8 @@
       <c r="C350" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D350" t="s" s="10">
-        <v>36</v>
+      <c r="D350" t="n" s="10">
+        <v>1781737.0</v>
       </c>
     </row>
     <row r="351">
@@ -5099,8 +5099,8 @@
       <c r="C351" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D351" t="s" s="10">
-        <v>36</v>
+      <c r="D351" t="n" s="10">
+        <v>5383571.0</v>
       </c>
     </row>
     <row r="352">
@@ -5187,7 +5187,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:15:36&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:11:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>